--- a/Stock_Trends_Comparison.xlsx
+++ b/Stock_Trends_Comparison.xlsx
@@ -1,120 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venas\Desktop\StockTrends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E6619A-4B6D-41F5-B89C-980F7BC7BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-36" yWindow="540" windowWidth="23100" windowHeight="11784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="ExxonRPA" sheetId="2" r:id="rId1"/>
-    <sheet name="WexAcademy" sheetId="5" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD643A6-EA96-4D6C-B075-58767784403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView minimized="1" xWindow="-36" yWindow="540" windowWidth="23100" windowHeight="11784" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="ExxonRPA" sheetId="2" r:id="rId1"/>
+    <x:sheet name="WexAcademy" sheetId="5" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="0"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>currentDate</t>
-  </si>
-  <si>
-    <t>timeStamp</t>
-  </si>
-  <si>
-    <t>DecPriceExxon</t>
-  </si>
-  <si>
-    <t>11:01:50</t>
-  </si>
-  <si>
-    <t>11:02:59</t>
-  </si>
-  <si>
-    <t>11:04:06</t>
-  </si>
-  <si>
-    <t>11:05:12</t>
-  </si>
-  <si>
-    <t>11:06:17</t>
-  </si>
-  <si>
-    <t>11:07:23</t>
-  </si>
-  <si>
-    <t>11:08:29</t>
-  </si>
-  <si>
-    <t>DecWexAcademy</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>currentDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>timeStamp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DecPriceExxon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:24:04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11:26:11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DecWexAcademy</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -157,25 +157,6 @@
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>ExxonRPA!$A$2:$B$3</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>11:01:50</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>11:02:59</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
@@ -184,12 +165,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -311,55 +286,6 @@
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>ExxonRPA!$A$2:$B$8</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>11:01:50</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>11:02:59</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11:04:06</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>11:05:12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>11:06:17</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>11:07:23</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>11:08:29</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
@@ -368,27 +294,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -510,55 +415,6 @@
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>WexAcademy!$A$2:$B$8</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>11:01:50</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>11:02:59</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11:04:06</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>11:05:12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>11:06:17</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>11:07:23</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>11:08:29</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2024/01/23</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
@@ -567,27 +423,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1071,220 +906,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="D15" sqref="D15"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="23.664062" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="20.21875" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.886719" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="3">
+        <x:v>45314</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="3">
+        <x:v>45314</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>80.55</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:drawing r:id="rId2"/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>45314</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C4" sqref="C4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="21" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="22.21875" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="22.664062" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="3">
+        <x:v>45314</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="3">
+        <x:v>45314</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:drawing r:id="rId1"/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Stock_Trends_Comparison.xlsx
+++ b/Stock_Trends_Comparison.xlsx
@@ -1,120 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venas\Desktop\StockTrends\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD643A6-EA96-4D6C-B075-58767784403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView minimized="1" xWindow="-36" yWindow="540" windowWidth="23100" windowHeight="11784" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="ExxonRPA" sheetId="2" r:id="rId1"/>
-    <x:sheet name="WexAcademy" sheetId="5" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="0"/>
-</x:workbook>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1B9933-93E6-4E26-A41E-9DC527E59C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView minimized="1" xWindow="-36" yWindow="540" windowWidth="23100" windowHeight="11784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="ExxonRPA" sheetId="2" r:id="rId1"/>
+    <sheet name="WexAcademy" sheetId="5" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <x:si>
-    <x:t>currentDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>timeStamp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DecPriceExxon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:24:04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:26:11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DecWexAcademy</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+  <si>
+    <t>currentDate</t>
+  </si>
+  <si>
+    <t>timeStamp</t>
+  </si>
+  <si>
+    <t>DecPriceExxon</t>
+  </si>
+  <si>
+    <t>16:53:01</t>
+  </si>
+  <si>
+    <t>16:54:10</t>
+  </si>
+  <si>
+    <t>16:55:16</t>
+  </si>
+  <si>
+    <t>16:56:22</t>
+  </si>
+  <si>
+    <t>16:57:28</t>
+  </si>
+  <si>
+    <t>16:58:34</t>
+  </si>
+  <si>
+    <t>16:59:40</t>
+  </si>
+  <si>
+    <t>DecWexAcademy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -156,22 +156,92 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ExxonRPA!$A$2:$B$3</c:f>
+              <c:f>ExxonRPA!$A$2:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>16:53:01</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16:54:10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16:55:16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16:56:22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16:57:28</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16:58:34</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16:59:40</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ExxonRPA!$C$2:$C$3</c:f>
+              <c:f>ExxonRPA!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4AEB-4051-964A-C50503605D05}"/>
+              <c16:uniqueId val="{00000003-52FF-47E2-92AB-4808F5171CC4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -185,11 +255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="899339967"/>
-        <c:axId val="899339135"/>
+        <c:axId val="908959775"/>
+        <c:axId val="908961023"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="899339967"/>
+        <c:axId val="908959775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -199,7 +269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="899339135"/>
+        <c:crossAx val="908961023"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -207,7 +277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="899339135"/>
+        <c:axId val="908961023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -218,7 +288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="899339967"/>
+        <c:crossAx val="908959775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -274,33 +344,103 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ExxonRPA!$C$1</c:f>
+              <c:f>WexAcademy!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DecPriceExxon</c:v>
+                  <c:v>DecWexAcademy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>ExxonRPA!$A$2:$B$8</c:f>
+              <c:f>WexAcademy!$A$2:$B$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>16:53:01</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16:54:10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16:55:16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16:56:22</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16:57:28</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>16:58:34</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16:59:40</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2024/01/23</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ExxonRPA!$C$2:$C$8</c:f>
+              <c:f>WexAcademy!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61BB-4FD8-91F9-ACD24A533325}"/>
+              <c16:uniqueId val="{00000002-4EBD-4848-902F-0B38FF418C9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -314,11 +454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="909251279"/>
-        <c:axId val="909251695"/>
+        <c:axId val="900975679"/>
+        <c:axId val="900974847"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="909251279"/>
+        <c:axId val="900975679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="909251695"/>
+        <c:crossAx val="900974847"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -336,7 +476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="909251695"/>
+        <c:axId val="900974847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,136 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="909251279"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>WexAcademy!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DecWexAcademy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>WexAcademy!$A$2:$B$8</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>WexAcademy!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-68B4-40F6-B526-C85DBF51363E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="899425423"/>
-        <c:axId val="899425839"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="899425423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="899425839"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="899425839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="899425423"/>
+        <c:crossAx val="900975679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -524,7 +535,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92633C8-F8DE-427D-94FA-8B71B70FA3E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC8817-E5DB-4807-9939-80CC75BA9226}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -537,42 +548,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E91AB62-ED08-433A-A97F-59ABBC2842DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -601,7 +576,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82C2CB7-DD5B-44EE-A7E9-570DDEB3BBAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1177AE-BCA6-4CFF-9C77-4458F2BAAAD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -906,123 +881,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="D15" sqref="D15"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="23.664062" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.21875" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.886719" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="3">
-        <x:v>45314</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="3">
-        <x:v>45314</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>80.55</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
-  <x:headerFooter/>
-  <x:drawing r:id="rId2"/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2 A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C4" sqref="C4"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" width="21" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="22.21875" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="22.664062" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3">
-        <x:v>45314</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="n">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="3">
-        <x:v>45314</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:drawing r:id="rId1"/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2 A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>